--- a/biology/Médecine/Myiase/Myiase.xlsx
+++ b/biology/Médecine/Myiase/Myiase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les myiases ou myases sont l’ensemble des troubles provoqués par la présence dans un corps animal de larves de diptères parasites. Les familles de diptères concernées sont celles des Calliphoridae, des Oestridae, des Sarcophagidae, des Cuterebridae et des Muscidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme myiase, ou myase, (nom féminin) est composé de la racine du grec ancien μυῖα / muîa, qui signifie « mouche », et du suffixe ἴασις / íasis, qui signifie en grec « guérison », mais est utilisé en français pour indiquer une maladie.
 </t>
@@ -542,10 +556,12 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les myases, fréquentes dans certaines zones tropicales, sont le plus souvent bénignes, mais inquiétantes pour ceux qui n’y sont pas habitués. 
-Ce sont des infections en plein développement dans les pays riches chez les touristes, chasseurs[1], prospecteurs et naturalistes de retour de pays tropicaux. Certains pays (Australie[2]) imposent une quarantaine en cas de détection d’une myase aux frontières, afin de limiter le risque d’invasion du pays par une espèce parasite de l’humain ou du bétail. 
+Ce sont des infections en plein développement dans les pays riches chez les touristes, chasseurs, prospecteurs et naturalistes de retour de pays tropicaux. Certains pays (Australie) imposent une quarantaine en cas de détection d’une myase aux frontières, afin de limiter le risque d’invasion du pays par une espèce parasite de l’humain ou du bétail. 
 Quelques cas locaux et « naturels » peuvent se produire en zone non tropicale, mais sont assez rares chez l’humain.
 </t>
         </is>
@@ -575,16 +591,91 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On distingue généralement :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On distingue généralement :
 myiase cuticole, parfois furonculaire ;
 myiase cavitaire (ou luminale) ;
-myiase intestinale (une des formes de myases luminales).
-Myiases « cuticoles » et « furonculaires »
-Ce sont des infestations cutanées et sous-cutanées endoparasitaires, causées par une ou plusieurs larves de diptères dont les larves ectoparasites sont pondues directement par la mouche sur la peau, ou sur un vecteur secondaire (tel qu’un moustique) ou au sol et sur les tissus. Ces larves ne s’attaquent qu’aux zones cutanées, mais peuvent s’enfoncer jusqu’à 1 cm, voire un peu plus, sous la peau. La présence de la larve se manifeste généralement par un furoncle ou un kyste sébacé, souvent surinfecté, ne réagissant pas aux traitements antibiotiques. Quand elle grandit, la larve est parfois perçue par son hôte (sensation de mouvement sous la peau). 
-Les formes sévissant en Europe
-Le formes sévissant en Europe[4] :
+myiase intestinale (une des formes de myases luminales).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Myiase</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myiase</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Myiases « cuticoles » et « furonculaires »</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des infestations cutanées et sous-cutanées endoparasitaires, causées par une ou plusieurs larves de diptères dont les larves ectoparasites sont pondues directement par la mouche sur la peau, ou sur un vecteur secondaire (tel qu’un moustique) ou au sol et sur les tissus. Ces larves ne s’attaquent qu’aux zones cutanées, mais peuvent s’enfoncer jusqu’à 1 cm, voire un peu plus, sous la peau. La présence de la larve se manifeste généralement par un furoncle ou un kyste sébacé, souvent surinfecté, ne réagissant pas aux traitements antibiotiques. Quand elle grandit, la larve est parfois perçue par son hôte (sensation de mouvement sous la peau). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Myiase</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myiase</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Myiases « cuticoles » et « furonculaires »</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Les formes sévissant en Europe</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le formes sévissant en Europe :
 la plus connue est due à Wohlfahrtia magnifica (wohlfahrtiose). La porte d'entrée peut être une plaie cutanée ou une muqueuse saine. Elle peut atteindre ainsi l'oreille, l'œil, le nez ou le vagin ;
 Hypoderma bovis, un hypoderme qui touche les bovins, avorte son cycle chez l'humain et est responsable d'une myase furonculoïde, c'est-à-dire une masse rénitente, indolore, d'apparition rapide (quelques heures), se perçant rapidement d’un pertuis permettant l'issue d'une larve, en général de moins de 10 mm.
 Les formes sévissant dans les Amériques
@@ -592,7 +683,7 @@
 On trouve aussi en Amérique centrale et du Sud la lucilie bouchère, Cochliomyia hominivorax.
 Ces infections ne sont pas toujours douloureuses; la larve semble sécréter un antibiotique qui rend les infections rares tant que la larve est vivante sous la peau. Des surinfections bactériennes douloureuses causées par des staphylocoques, streptocoques, clostridium, etc. sont néanmoins toujours à craindre, en particulier en cas d’extractions provoquées réalisées sans précautions hygiéniques adéquates. La « plaie » est normalement bactériologiquement stérile, mais elle excrète des sérosités et résidus fécaloïdes qui peuvent attirer d’autres insectes potentiellement porteurs de parasites[réf. nécessaire].
 Traitement
-Il consiste généralement à asphyxier la larve durant la phase initiale de l’infection en bouchant l’ouverture de son gîte par de la vaseline, du gras de porc, un autre corps gras (Si l’on applique une tranche de gras de lard durant environ 48 heures, la larve cherche à remonter en surface pour respirer. Elle traverse la couche de lard où on la piège alors (le lard est parfois remplacé par une épaisseur de coton imprégnée de biafine ou de vaseline). Certains utilisent un morceau de scotch[5] (scotch en large bande). Ces méthodes basées sur l’asphyxie permettent souvent l’extraction spontanée du parasite[6], ou son extraction facilitée à la pince à épiler. Dans certains cas, une infection bactérienne s'ensuit. Un nettoyage chirurgical est nécessaire si la larve est incomplètement extraite. Les seringues spécialement conçues pour aspirer les venins semblent également efficaces dès la phase précoce de l’infection et à tous les stades, évitant la chirurgie et diminuant a priori le risque d’infection. S’il doit être fait, le geste chirurgical se réalise sous anesthésie locale et il doit être suivi d’une désinfection soigneuse.
+Il consiste généralement à asphyxier la larve durant la phase initiale de l’infection en bouchant l’ouverture de son gîte par de la vaseline, du gras de porc, un autre corps gras (Si l’on applique une tranche de gras de lard durant environ 48 heures, la larve cherche à remonter en surface pour respirer. Elle traverse la couche de lard où on la piège alors (le lard est parfois remplacé par une épaisseur de coton imprégnée de biafine ou de vaseline). Certains utilisent un morceau de scotch (scotch en large bande). Ces méthodes basées sur l’asphyxie permettent souvent l’extraction spontanée du parasite, ou son extraction facilitée à la pince à épiler. Dans certains cas, une infection bactérienne s'ensuit. Un nettoyage chirurgical est nécessaire si la larve est incomplètement extraite. Les seringues spécialement conçues pour aspirer les venins semblent également efficaces dès la phase précoce de l’infection et à tous les stades, évitant la chirurgie et diminuant a priori le risque d’infection. S’il doit être fait, le geste chirurgical se réalise sous anesthésie locale et il doit être suivi d’une désinfection soigneuse.
 Lutte préventive
 Limiter l’exposition aux moustiques, mouches et tiques (répulsifs, moustiquaire, évitement des zones à risque aux heures où les moustiques sont actifs).
 Les formes africaines
@@ -601,46 +692,116 @@
 Traitement
 Il est réputé plus facile que pour les myases américaines. Les larves de ces mouches sortent en effet plus facilement de leur gîte, par simple pression bilatérale sur le furoncle ou nodule. Elles peuvent aussi être facilement asphyxiées par application d’un corps gras sur l’orifice de respiration (vaseline par exemple). Certains préfèrent attendre quelques jours que la mouche émerge spontanément sous sa forme adulte. Un traitement antibiotique oral et un vaccin antitétanique de rappel sont souvent recommandés pour limiter le risque de surinfection bactérienne[réf. nécessaire].
 Lutte préventive
-Trempage des draps et habits dans l’eau bouillante avant de les utiliser[7], ou repassage au fer très chaud des tissus qui seront en contact avec le corps (dont lit de camp). Les tissus non utilisés peuvent aussi être stockés derrière une moustiquaire.
-Myiases cavitaires ou luminales
-Elles sont généralement situées dans les zones cérébrales.La lucilie bouchère est réputée pour rendre fous les animaux sauvages, en leur dévorant le cerveau, après avoir investi les sinus nasaux ou les cornes.Les larves de Lucilia bufonivora mangent une partie de l’intérieur de la tête du crapaud Bufo bufo, à partir des narines, en le laissant vivant et relativement amorphe (il tente simplement épisodiquement quelques gestes des pattes avant comme s’il cherchait à se débarrasser des larves).
+Trempage des draps et habits dans l’eau bouillante avant de les utiliser, ou repassage au fer très chaud des tissus qui seront en contact avec le corps (dont lit de camp). Les tissus non utilisés peuvent aussi être stockés derrière une moustiquaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Myiase</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myiase</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Myiases cavitaires ou luminales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Elles sont généralement situées dans les zones cérébrales.La lucilie bouchère est réputée pour rendre fous les animaux sauvages, en leur dévorant le cerveau, après avoir investi les sinus nasaux ou les cornes.Les larves de Lucilia bufonivora mangent une partie de l’intérieur de la tête du crapaud Bufo bufo, à partir des narines, en le laissant vivant et relativement amorphe (il tente simplement épisodiquement quelques gestes des pattes avant comme s’il cherchait à se débarrasser des larves).
 Il existe aussi chez l’humain et l’animal des myases luminales colonisant un organisme via ses orifices naturels :
 nez ;
 conduit auditif ;
 tube digestif ;
 organes génitaux ;
-yeux.
-Myases intestinales
-Elles sont provoquées par des endoparasites[4]. On notera en particulier Gasterophilus inermis, une espèce de diptère parasite des chevaux. Chez l'humain, l'aspect évoque une larva migrans, en moins sinueux que l'ankylostome, dont la progression est de quelques centimètres par jour[réf. nécessaire]. Il y a aussi le cas du casgiu merzu, une préparation fromagère d'origine corse impliquant des larves de la mouche du fromage, Piophila casei, qui peuvent résister à l’acide stomacal et peuvent vivre un certain temps dans l’intestin après une ingestion[réf. nécessaire].
+yeux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Myiase</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myiase</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Myases intestinales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont provoquées par des endoparasites. On notera en particulier Gasterophilus inermis, une espèce de diptère parasite des chevaux. Chez l'humain, l'aspect évoque une larva migrans, en moins sinueux que l'ankylostome, dont la progression est de quelques centimètres par jour[réf. nécessaire]. Il y a aussi le cas du casgiu merzu, une préparation fromagère d'origine corse impliquant des larves de la mouche du fromage, Piophila casei, qui peuvent résister à l’acide stomacal et peuvent vivre un certain temps dans l’intestin après une ingestion[réf. nécessaire].
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Myiase</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Myiase</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Myiase</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myiase</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Myiases humaines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Calliphora vomitoria
@@ -660,31 +821,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Myiase</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Myiase</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Myiase</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myiase</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Myiases vétérinaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La plus connue est due à la lucilie bouchère. Chez les animaux d’élevage, ces types de myases amenuisent la valeur de la peau destinée à la tannerie et ont souvent justifié l’application de médicaments vétérinaires (insecticides dits « antiparasitaires ») chez les animaux d’élevages (bovins en particulier).
 Des myiases parfois sévères sont occasionnées par les Sarcophagidae.
